--- a/crypto_data.xlsx
+++ b/crypto_data.xlsx
@@ -479,16 +479,16 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>92554</v>
+        <v>92651</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1832314428467</v>
+        <v>1836656863399</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>61435809037</v>
+        <v>61031628008</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>-2.31298</v>
+        <v>-2.11192</v>
       </c>
     </row>
     <row r="3">
@@ -503,40 +503,40 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>3251.32</v>
+        <v>3253.01</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>391481745942</v>
+        <v>392141219452</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>27919480654</v>
+        <v>27731920354</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>-1.87963</v>
+        <v>-1.68586</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Tether</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>USDT</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>0.999845</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>137580442379</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>80430462850</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>-0.08946</v>
+      <c r="C4" s="2" t="n">
+        <v>0.99987</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>137581262294</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>49920273232</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0.06397</v>
       </c>
     </row>
     <row r="5">
@@ -554,13 +554,13 @@
         <v>2.3</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>131854904504</v>
+        <v>132226506271</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>6178947281</v>
+        <v>6122759011</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1.16255</v>
+        <v>-0.76017</v>
       </c>
     </row>
     <row r="6">
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>686.3</v>
+        <v>687.09</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>100150030604</v>
+        <v>100330388719</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>1051156839</v>
+        <v>1046236766</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-1.05742</v>
+        <v>-0.83699</v>
       </c>
     </row>
     <row r="7">
@@ -599,16 +599,16 @@
         </is>
       </c>
       <c r="C7" s="1" t="n">
-        <v>187.66</v>
+        <v>188</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>90699318617</v>
+        <v>90964631777</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>4431882559</v>
+        <v>4403666362</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-4.07598</v>
+        <v>-3.6882</v>
       </c>
     </row>
     <row r="8">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.320962</v>
+        <v>0.32142</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>47325068979</v>
+        <v>47494424284</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>3738269291</v>
+        <v>3709053934</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>-5.51328</v>
+        <v>-5.29644</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.999989</v>
+        <v>0.999979</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45362377859</v>
+        <v>45361363608</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>8201739759</v>
+        <v>10170802156</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>-0.17329</v>
+        <v>-0.02079</v>
       </c>
     </row>
     <row r="10">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.913113</v>
+        <v>0.91479</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>32735464197</v>
+        <v>32844672095</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1664130390</v>
+        <v>1635800594</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>-4.50577</v>
+        <v>-3.61297</v>
       </c>
     </row>
     <row r="11">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="C11" s="1" t="n">
-        <v>3252.13</v>
+        <v>3252.86</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>31282754440</v>
+        <v>31328299402</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>61038431</v>
+        <v>61007237</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-2.07533</v>
+        <v>-1.55881</v>
       </c>
     </row>
     <row r="12">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.241777</v>
+        <v>0.241898</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>20828662246</v>
+        <v>20858930065</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>1236838909</v>
+        <v>1227194841</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>-3.27267</v>
+        <v>-3.09006</v>
       </c>
     </row>
     <row r="13">
@@ -743,16 +743,16 @@
         </is>
       </c>
       <c r="C13" s="1" t="n">
-        <v>36.49</v>
+        <v>36.54</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>14972496797</v>
+        <v>15018666038</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>424503265</v>
+        <v>423283130</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>-3.62723</v>
+        <v>-3.11228</v>
       </c>
     </row>
     <row r="14">
@@ -767,16 +767,16 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>14340053139</v>
+        <v>14371450958</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>2068853161</v>
+        <v>2059879133</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.37874</v>
+        <v>1.72878</v>
       </c>
     </row>
     <row r="15">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>3869.42</v>
+        <v>3870.59</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>13647678586</v>
+        <v>13667095388</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>56900530</v>
+        <v>56144066</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>-1.2424</v>
+        <v>-1.56311</v>
       </c>
     </row>
     <row r="16">
@@ -818,13 +818,13 @@
         <v>5.2</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>13200564414</v>
+        <v>13224286264</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>253847435</v>
+        <v>254751724</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>-2.10328</v>
+        <v>-1.65201</v>
       </c>
     </row>
     <row r="17">
@@ -839,16 +839,16 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>2.139e-05</v>
+        <v>2.141e-05</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>12616355628</v>
+        <v>12641575952</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>504351228</v>
+        <v>502845665</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0.23432</v>
+        <v>0.56213</v>
       </c>
     </row>
     <row r="18">
@@ -863,16 +863,16 @@
         </is>
       </c>
       <c r="C18" s="1" t="n">
-        <v>19.73</v>
+        <v>19.75</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>12448908869</v>
+        <v>12476576277</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>937113487</v>
+        <v>930655644</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>-4.01501</v>
+        <v>-3.82355</v>
       </c>
     </row>
     <row r="19">
@@ -887,16 +887,16 @@
         </is>
       </c>
       <c r="C19" s="1" t="n">
-        <v>92567</v>
+        <v>92594</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>12220396982</v>
+        <v>12234942479</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>579322409</v>
+        <v>573875305</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>-1.91306</v>
+        <v>-1.99177</v>
       </c>
     </row>
     <row r="20">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.398463</v>
+        <v>0.39921</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>12111226426</v>
+        <v>12138370498</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>574950612</v>
+        <v>573460186</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>-3.47872</v>
+        <v>-3.05462</v>
       </c>
     </row>
     <row r="21">
@@ -935,16 +935,16 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.27036</v>
+        <v>0.270812</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>10351390564</v>
+        <v>10382160519</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>575384686</v>
+        <v>570168665</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>-4.9089</v>
+        <v>-4.27929</v>
       </c>
     </row>
     <row r="22">
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>6.64</v>
+        <v>6.66</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>10123137616</v>
+        <v>10159866851</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>354429183</v>
+        <v>350348043</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>-1.62812</v>
+        <v>-1.18688</v>
       </c>
     </row>
     <row r="23">
@@ -983,16 +983,16 @@
         </is>
       </c>
       <c r="C23" s="1" t="n">
-        <v>3252.35</v>
+        <v>3252.66</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>9805416151</v>
+        <v>9818482363</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>1067169739</v>
+        <v>1069532167</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>-1.81676</v>
+        <v>-1.75238</v>
       </c>
     </row>
     <row r="24">
@@ -1007,40 +1007,40 @@
         </is>
       </c>
       <c r="C24" s="1" t="n">
-        <v>422.64</v>
+        <v>422.83</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>8372906304</v>
+        <v>8385056702</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>268584161</v>
+        <v>267345890</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>-3.06913</v>
+        <v>-2.8839</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>LEO Token</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>8361152584</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>741845</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>-0.15954</v>
+      <c r="C25" s="2" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>8374773722</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>742013</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>0.02341</v>
       </c>
     </row>
     <row r="26">
@@ -1055,16 +1055,16 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>103.4</v>
+        <v>103.52</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>7793806786</v>
+        <v>7814615714</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>696054526</v>
+        <v>694006157</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.70912</v>
+        <v>2.1002</v>
       </c>
     </row>
     <row r="27">
@@ -1079,16 +1079,16 @@
         </is>
       </c>
       <c r="C27" s="1" t="n">
-        <v>6.35</v>
+        <v>6.34</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>7601416907</v>
+        <v>7624063837</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>356980628</v>
+        <v>355201922</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>-0.9145799999999999</v>
+        <v>-0.20738</v>
       </c>
     </row>
     <row r="28">
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="C28" s="1" t="n">
-        <v>12.69</v>
+        <v>12.7</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>7627717534</v>
+        <v>7643974771</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>343811421</v>
+        <v>343898897</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>-3.26742</v>
+        <v>-2.78609</v>
       </c>
     </row>
     <row r="29">
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="C29" s="1" t="n">
-        <v>1.732e-05</v>
+        <v>1.733e-05</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>7289113941</v>
+        <v>7308202398</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>1623720763</v>
+        <v>1606648192</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>-3.24428</v>
+        <v>-3.01825</v>
       </c>
     </row>
     <row r="30">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="C30" s="1" t="n">
-        <v>19.71</v>
+        <v>19.94</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>6593076369</v>
+        <v>6656771841</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>322911940</v>
+        <v>320735856</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>-12.49081</v>
+        <v>-11.87033</v>
       </c>
     </row>
     <row r="31">
@@ -1175,16 +1175,16 @@
         </is>
       </c>
       <c r="C31" s="1" t="n">
-        <v>3436.66</v>
+        <v>3438.26</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>6451531031</v>
+        <v>6461521256</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>12445509</v>
+        <v>12345839</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>-2.01455</v>
+        <v>-1.6109</v>
       </c>
     </row>
     <row r="32">
@@ -1202,61 +1202,61 @@
         <v>4.98</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>5813627647</v>
+        <v>5828606703</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>350550864</v>
+        <v>348217950</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>-2.74423</v>
+        <v>-2.49072</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>Ethena USDe</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>USDE</t>
         </is>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>0.998215</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>5785974848</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>151140107</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>-0.17713</v>
+      <c r="C33" s="2" t="n">
+        <v>0.998497</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>5789257063</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>151317075</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>0.04695</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>USDS</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>USDS</t>
         </is>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>0.997474</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>5727514634</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>26267639</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>-0.19829</v>
+      <c r="C34" s="2" t="n">
+        <v>0.996983</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>5726764976</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>26175138</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>0.10243</v>
       </c>
     </row>
     <row r="35">
@@ -1271,16 +1271,16 @@
         </is>
       </c>
       <c r="C35" s="1" t="n">
-        <v>10.25</v>
+        <v>10.26</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>4908479366</v>
+        <v>4921997300</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>214237956</v>
+        <v>212774247</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>-6.29594</v>
+        <v>-6.3321</v>
       </c>
     </row>
     <row r="36">
@@ -1295,16 +1295,16 @@
         </is>
       </c>
       <c r="C36" s="1" t="n">
-        <v>8.69</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>4864982687</v>
+        <v>4880929166</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>384252912</v>
+        <v>383024671</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>-2.93206</v>
+        <v>-2.93548</v>
       </c>
     </row>
     <row r="37">
@@ -1319,16 +1319,16 @@
         </is>
       </c>
       <c r="C37" s="1" t="n">
-        <v>282.56</v>
+        <v>282.42</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>4248489910</v>
+        <v>4252748370</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>618650574</v>
+        <v>612051163</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>-2.59487</v>
+        <v>-2.38408</v>
       </c>
     </row>
     <row r="38">
@@ -1343,16 +1343,16 @@
         </is>
       </c>
       <c r="C38" s="1" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>3880261477</v>
+        <v>3888772864</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>166101647</v>
+        <v>163450161</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>-4.34862</v>
+        <v>-4.25866</v>
       </c>
     </row>
     <row r="39">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="C39" s="1" t="n">
-        <v>0.452517</v>
+        <v>0.452367</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>3799021968</v>
+        <v>3811311441</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>107438712</v>
+        <v>106715327</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>-1.44304</v>
+        <v>-1.34129</v>
       </c>
     </row>
     <row r="40">
@@ -1391,16 +1391,16 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>3.97</v>
+        <v>3.98</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>3824251196</v>
+        <v>3824429684</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>101675649</v>
+        <v>99125166</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>0.46934</v>
+        <v>0.50247</v>
       </c>
     </row>
     <row r="41">
@@ -1415,16 +1415,16 @@
         </is>
       </c>
       <c r="C41" s="1" t="n">
-        <v>0.13887</v>
+        <v>0.139023</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>3776302222</v>
+        <v>3786275316</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>30013143</v>
+        <v>29859359</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>-4.12556</v>
+        <v>-3.81329</v>
       </c>
     </row>
     <row r="42">
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="C42" s="1" t="n">
-        <v>24.97</v>
+        <v>25.01</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>3750691725</v>
+        <v>3762438663</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>211382565</v>
+        <v>210346184</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>-1.41391</v>
+        <v>-0.9312</v>
       </c>
     </row>
     <row r="43">
@@ -1463,16 +1463,16 @@
         </is>
       </c>
       <c r="C43" s="1" t="n">
-        <v>7.14</v>
+        <v>7.13</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>3693066001</v>
+        <v>3696856083</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>213397173</v>
+        <v>211046527</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>-5.68551</v>
+        <v>-5.7934</v>
       </c>
     </row>
     <row r="44">
@@ -1487,16 +1487,16 @@
         </is>
       </c>
       <c r="C44" s="1" t="n">
-        <v>446.98</v>
+        <v>445.97</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>3638899854</v>
+        <v>3639359492</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>113692180</v>
+        <v>111763761</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>-5.18934</v>
+        <v>-4.93703</v>
       </c>
     </row>
     <row r="45">
@@ -1511,16 +1511,16 @@
         </is>
       </c>
       <c r="C45" s="1" t="n">
-        <v>0.04442273</v>
+        <v>0.04445291</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>3598192168</v>
+        <v>3604656078</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>72291035</v>
+        <v>70681293</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>-1.55497</v>
+        <v>-1.52987</v>
       </c>
     </row>
     <row r="46">
@@ -1535,16 +1535,16 @@
         </is>
       </c>
       <c r="C46" s="1" t="n">
-        <v>194.07</v>
+        <v>192.41</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>3578761713</v>
+        <v>3553529108</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>60015436</v>
+        <v>59844722</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>-2.14438</v>
+        <v>-2.23344</v>
       </c>
     </row>
     <row r="47">
@@ -1562,37 +1562,37 @@
         <v>43.02</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>3437207285</v>
+        <v>3449970977</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>27141793</v>
+        <v>26851280</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>1.48471</v>
+        <v>1.23168</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>Dai</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>DAI</t>
         </is>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C48" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D48" s="1" t="n">
-        <v>3406624395</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>137043034</v>
-      </c>
-      <c r="F48" s="1" t="n">
-        <v>-0.03924</v>
+      <c r="D48" s="2" t="n">
+        <v>3406186626</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>143049756</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>0.05399</v>
       </c>
     </row>
     <row r="49">
@@ -1610,13 +1610,13 @@
         <v>1.3</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>3379577018</v>
+        <v>3387970993</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>442864002</v>
+        <v>440560772</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>-3.00495</v>
+        <v>-2.74721</v>
       </c>
     </row>
     <row r="50">
@@ -1634,13 +1634,13 @@
         <v>3.18</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>3183425251</v>
+        <v>3175511587</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>533642758</v>
+        <v>526136916</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>-11.01737</v>
+        <v>-11.46298</v>
       </c>
     </row>
     <row r="51">
@@ -1655,16 +1655,16 @@
         </is>
       </c>
       <c r="C51" s="1" t="n">
-        <v>0.75454</v>
+        <v>0.755092</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>3177066038</v>
+        <v>3183005111</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>405709764</v>
+        <v>402728383</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>-5.12775</v>
+        <v>-4.84451</v>
       </c>
     </row>
   </sheetData>
